--- a/Phase_I/test_results_50thresh_50epoch.xlsx
+++ b/Phase_I/test_results_50thresh_50epoch.xlsx
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
